--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be984f7ed3aa7fa3/Documents/UiPath/IACET_Dispatcher/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C749BC09-96D3-4243-9024-CFE45C020BFD}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -159,7 +156,79 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>Temp Folder Path</t>
+  </si>
+  <si>
+    <t>Input folder path</t>
+  </si>
+  <si>
+    <t>S folder</t>
+  </si>
+  <si>
+    <t>NS Folder</t>
+  </si>
+  <si>
+    <t>Iacet Sheet Path</t>
+  </si>
+  <si>
+    <t>Policy sheet Path</t>
+  </si>
+  <si>
+    <t>Extract Sheet Path</t>
+  </si>
+  <si>
+    <t>Email Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Sender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Receiver</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>RE Framework</t>
+  </si>
+  <si>
+    <t>IACET PDF</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Temp</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\SFolder</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\NSFolder</t>
+  </si>
+  <si>
+    <t>Data Folder path</t>
+  </si>
+  <si>
+    <t>aarvi.gupta31@outlook.com</t>
+  </si>
+  <si>
+    <t>aarvigupta31@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\Policy Details.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\IACET DATA.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\Extract Data.xlsx</t>
+  </si>
+  <si>
+    <t>IACET Data Queue</t>
   </si>
 </sst>
 </file>
@@ -538,15 +607,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -585,47 +654,126 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1623,12 +1771,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1813,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1673,18 +1821,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1878,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,53 +1900,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2786,12 +2934,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2802,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be984f7ed3aa7fa3/Documents/UiPath/IACET_Dispatcher/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IACET_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C749BC09-96D3-4243-9024-CFE45C020BFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B227A7-67E7-402A-B760-EE8D824092EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
+  </si>
+  <si>
+    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -156,86 +159,95 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Temp Folder Path</t>
-  </si>
-  <si>
-    <t>Input folder path</t>
-  </si>
-  <si>
-    <t>S folder</t>
-  </si>
-  <si>
-    <t>NS Folder</t>
-  </si>
-  <si>
-    <t>Iacet Sheet Path</t>
-  </si>
-  <si>
-    <t>Policy sheet Path</t>
-  </si>
-  <si>
-    <t>Extract Sheet Path</t>
-  </si>
-  <si>
-    <t>Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email Sender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email Receiver</t>
-  </si>
-  <si>
     <t>Shared</t>
   </si>
   <si>
-    <t>RE Framework</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>TempFolderPath</t>
+  </si>
+  <si>
+    <t>PolicySheetPath</t>
+  </si>
+  <si>
+    <t>IACETSheetPath</t>
+  </si>
+  <si>
+    <t>PDFDataSheetPath</t>
+  </si>
+  <si>
+    <t>Email Sender</t>
+  </si>
+  <si>
+    <t>Email Receiver</t>
+  </si>
+  <si>
+    <t>PDFSheetName</t>
+  </si>
+  <si>
+    <t>NSFolder</t>
+  </si>
+  <si>
+    <t>Sfolder</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>aarvi.gupta31@outlook.com</t>
+  </si>
+  <si>
+    <t>aarvigupta31@gmail.com</t>
+  </si>
+  <si>
+    <t>IACET PDF.pdf</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>IACET_QUEUE</t>
+  </si>
+  <si>
+    <t>InputFolderPath</t>
+  </si>
+  <si>
+    <t>[From]='Aarvi Gupta'</t>
   </si>
   <si>
     <t>IACET PDF</t>
   </si>
   <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Temp</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\SFolder</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\NSFolder</t>
-  </si>
-  <si>
-    <t>Data Folder path</t>
-  </si>
-  <si>
-    <t>aarvi.gupta31@outlook.com</t>
-  </si>
-  <si>
-    <t>aarvigupta31@gmail.com</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\Policy Details.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\IACET DATA.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\OneDrive\Documents\UiPath\IACET_Dispatcher\Data\Input\Extract Data.xlsx</t>
-  </si>
-  <si>
-    <t>IACET Data Queue</t>
+    <t>D:\IACET_Dispatcher\Data\Temp</t>
+  </si>
+  <si>
+    <t>D:\IACET_Dispatcher\Data\Input\Policy Details.xlsx</t>
+  </si>
+  <si>
+    <t>D:\IACET_Dispatcher\Data\Input\IACET DATA.xlsx</t>
+  </si>
+  <si>
+    <t>D:\IACET_Dispatcher\Data\Input</t>
+  </si>
+  <si>
+    <t>D:\IACET_Dispatcher\Data\Input\Book1 (002).xlsx</t>
+  </si>
+  <si>
+    <t>D:\IACET_Dispatcher\Data\Input\SFolder</t>
+  </si>
+  <si>
+    <t>D:\IACET_Dispatcher\Data\Input\NSFolder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -259,6 +271,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,10 +295,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -290,8 +309,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,13 +628,13 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="94" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -654,142 +675,156 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>62</v>
       </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1758,8 +1793,12 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{2096B341-7047-4789-BFCF-37298675C223}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{8D030AB2-8E7C-48AF-8EE8-C24C626CC491}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1821,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1856,7 +1895,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1878,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1889,7 +1928,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1900,53 +1939,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2950,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
